--- a/config/RK10_config_LOCAL.xlsx
+++ b/config/RK10_config_LOCAL.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://rsatonality.rakurakuseisan.jp/</t>
+          <t>https://rsatonality.rakurakuseisan.jp/rHqny3DOsIa/</t>
         </is>
       </c>
     </row>
